--- a/tests/eindhoven-500/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto_OV_Fiets.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto_OV_Fiets.xlsx
@@ -7460,13 +7460,13 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>7371.467879951818</v>
+        <v>7371.467879951819</v>
       </c>
       <c r="C418">
         <v>15148.82374457703</v>
       </c>
       <c r="D418">
-        <v>41755.9782086311</v>
+        <v>41755.97820863111</v>
       </c>
       <c r="E418">
         <v>63311.13971902953</v>
